--- a/myproject.xlsx
+++ b/myproject.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="9947"/>
+    <workbookView windowWidth="22943" windowHeight="9947" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="充值石油" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="商品表" sheetId="3" r:id="rId3"/>
+    <sheet name="给别人提供的接口" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>tb_oiluser 操作用户表</t>
   </si>
@@ -208,6 +209,36 @@
   <si>
     <t>image_url</t>
   </si>
+  <si>
+    <t>tb_record_prepaid_information</t>
+  </si>
+  <si>
+    <t>only_id</t>
+  </si>
+  <si>
+    <t>rpi_id</t>
+  </si>
+  <si>
+    <t>prepaid_money</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>油卡卡号</t>
+  </si>
+  <si>
+    <t>充值金额（int）</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
 </sst>
 </file>
 
@@ -215,11 +246,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +259,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,37 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,48 +310,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,11 +339,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,12 +370,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,187 +424,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +615,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,17 +666,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,44 +715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -686,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,140 +735,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,6 +944,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1187,17 +1233,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C3:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1205,32 +1250,32 @@
     <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="25.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" style="5" customWidth="1"/>
     <col min="7" max="7" width="105.333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="3:6">
       <c r="C6" t="s">
@@ -1242,7 +1287,7 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1256,7 +1301,7 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1283,27 +1328,27 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
@@ -1315,7 +1360,7 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1329,7 +1374,7 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1343,41 +1388,41 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" t="s">
@@ -1389,15 +1434,15 @@
       <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" t="s">
@@ -1409,12 +1454,12 @@
       <c r="E25" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>100</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" t="s">
@@ -1426,12 +1471,12 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" t="s">
@@ -1443,15 +1488,15 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" t="s">
@@ -1463,9 +1508,9 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" t="s">
@@ -1477,12 +1522,12 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>100</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" t="s">
@@ -1494,9 +1539,9 @@
       <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" t="s">
@@ -1511,9 +1556,9 @@
       <c r="F31">
         <v>10</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" t="s">
@@ -1526,9 +1571,9 @@
         <v>3</v>
       </c>
       <c r="F32"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" t="s">
@@ -1541,9 +1586,9 @@
         <v>3</v>
       </c>
       <c r="F33"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" t="s">
@@ -1568,146 +1613,146 @@
       </c>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="3:7">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="3:7">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="3:7">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="3:7">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="3:7">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="3:7">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="3:7">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="3:7">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="3:7">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="3:7">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="3:7">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="3:7">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="3:7">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="3:7">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="3:7">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="3:7">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="3:7">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="3:7">
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="3:7">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1724,7 +1769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C4:G11"/>
   <sheetViews>
@@ -1742,27 +1787,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
@@ -1774,7 +1819,7 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1788,7 +1833,7 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1802,10 +1847,10 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>100</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1819,7 +1864,7 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1845,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="E3:I15"/>
   <sheetViews>
@@ -1863,27 +1908,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:9">
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="5:9">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="5:9">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" t="s">
@@ -1895,7 +1940,7 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>100</v>
       </c>
       <c r="I6" t="s">
@@ -1912,7 +1957,7 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1926,7 +1971,7 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1940,7 +1985,7 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1950,4 +1995,95 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D2:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="18.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="26.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10">
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="4:10">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="4:10">
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/myproject.xlsx
+++ b/myproject.xlsx
@@ -2003,7 +2003,7 @@
   <dimension ref="D2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/myproject.xlsx
+++ b/myproject.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>tb_oiluser 操作用户表</t>
   </si>
@@ -239,16 +239,61 @@
   <si>
     <t>状态</t>
   </si>
+  <si>
+    <t>tb_wx_user</t>
+  </si>
+  <si>
+    <t>wx_user_openid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>微信的openid</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>tb_wx_licai</t>
+  </si>
+  <si>
+    <t>text_infor</t>
+  </si>
+  <si>
+    <t>manager_phone</t>
+  </si>
+  <si>
+    <t>appointment_phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wx_user_openid</t>
+  </si>
+  <si>
+    <t>唯一标识ID</t>
+  </si>
+  <si>
+    <t>理财说明</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 微信唯一标示</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -261,12 +306,96 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,29 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,69 +432,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,14 +452,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -424,25 +468,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,157 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,26 +662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +682,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,31 +737,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,137 +779,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,9 +917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1250,32 +1291,32 @@
     <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="25.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" style="4" customWidth="1"/>
     <col min="7" max="7" width="105.333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="3:6">
       <c r="C6" t="s">
@@ -1287,7 +1328,7 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1301,7 +1342,7 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1328,27 +1369,27 @@
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
@@ -1360,7 +1401,7 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1374,7 +1415,7 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1388,41 +1429,41 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" t="s">
@@ -1434,15 +1475,15 @@
       <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" t="s">
@@ -1454,12 +1495,12 @@
       <c r="E25" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>100</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="3:11">
       <c r="C26" t="s">
@@ -1471,12 +1512,12 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" t="s">
@@ -1488,15 +1529,15 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" t="s">
@@ -1508,9 +1549,9 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" t="s">
@@ -1522,12 +1563,12 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>100</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" t="s">
@@ -1539,9 +1580,9 @@
       <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" t="s">
@@ -1556,9 +1597,9 @@
       <c r="F31">
         <v>10</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" t="s">
@@ -1571,9 +1612,9 @@
         <v>3</v>
       </c>
       <c r="F32"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" t="s">
@@ -1586,9 +1627,9 @@
         <v>3</v>
       </c>
       <c r="F33"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" t="s">
@@ -1613,146 +1654,146 @@
       </c>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="3:7">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="3:7">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="3:7">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="3:7">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="3:7">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="3:7">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="3:7">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="3:7">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="3:7">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="3:7">
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="3:7">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="3:7">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="3:7">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="3:7">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="3:7">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="3:7">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="3:7">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="3:7">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="3:7">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1787,27 +1828,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
@@ -1819,7 +1860,7 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1833,7 +1874,7 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1847,10 +1888,10 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>100</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1864,7 +1905,7 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1908,27 +1949,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:9">
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="5:9">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="5:9">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" t="s">
@@ -1940,7 +1981,7 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>100</v>
       </c>
       <c r="I6" t="s">
@@ -1957,7 +1998,7 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1971,7 +2012,7 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1985,7 +2026,7 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2000,18 +2041,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D2:J5"/>
+  <dimension ref="D2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="18.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="18.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="33.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="26.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="13.7777777777778" customWidth="1"/>
   </cols>
@@ -2079,9 +2120,131 @@
         <v>69</v>
       </c>
     </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="D15:J16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/myproject.xlsx
+++ b/myproject.xlsx
@@ -2044,7 +2044,7 @@
   <dimension ref="D2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
